--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hp-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hp-Cd163.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H2">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I2">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J2">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3670103333333333</v>
+        <v>0.013841</v>
       </c>
       <c r="N2">
-        <v>1.101031</v>
+        <v>0.041523</v>
       </c>
       <c r="O2">
-        <v>0.03082745086208387</v>
+        <v>0.001379248562145083</v>
       </c>
       <c r="P2">
-        <v>0.03142654097317579</v>
+        <v>0.001433331793786624</v>
       </c>
       <c r="Q2">
-        <v>10.31128144421789</v>
+        <v>0.3888676516903333</v>
       </c>
       <c r="R2">
-        <v>92.80153299796098</v>
+        <v>3.499808865213</v>
       </c>
       <c r="S2">
-        <v>0.01479381389484003</v>
+        <v>0.0008871061778463887</v>
       </c>
       <c r="T2">
-        <v>0.01510681298437217</v>
+        <v>0.0009228032799498108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H3">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I3">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J3">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.583351333333334</v>
+        <v>3.248047</v>
       </c>
       <c r="N3">
-        <v>13.750054</v>
+        <v>9.744140999999999</v>
       </c>
       <c r="O3">
-        <v>0.3849838142940569</v>
+        <v>0.3236662202535691</v>
       </c>
       <c r="P3">
-        <v>0.3924654577522156</v>
+        <v>0.3363578522370683</v>
       </c>
       <c r="Q3">
-        <v>128.7708308550749</v>
+        <v>91.25499671048566</v>
       </c>
       <c r="R3">
-        <v>1158.937477695674</v>
+        <v>821.294970394371</v>
       </c>
       <c r="S3">
-        <v>0.1847502385673072</v>
+        <v>0.2081758947789487</v>
       </c>
       <c r="T3">
-        <v>0.1886590789024274</v>
+        <v>0.2165528809357086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H4">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I4">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J4">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6808595000000001</v>
+        <v>1.1359575</v>
       </c>
       <c r="N4">
-        <v>1.361719</v>
+        <v>2.271915</v>
       </c>
       <c r="O4">
-        <v>0.05718956899551328</v>
+        <v>0.1131975831611099</v>
       </c>
       <c r="P4">
-        <v>0.038867314314903</v>
+        <v>0.07842419869182714</v>
       </c>
       <c r="Q4">
-        <v>19.12898164121484</v>
+        <v>31.9151163532275</v>
       </c>
       <c r="R4">
-        <v>114.773889847289</v>
+        <v>191.490698119365</v>
       </c>
       <c r="S4">
-        <v>0.02744475513823091</v>
+        <v>0.07280651080275551</v>
       </c>
       <c r="T4">
-        <v>0.01868361042537975</v>
+        <v>0.05049082710226079</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H5">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I5">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J5">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.274088</v>
+        <v>5.637329</v>
       </c>
       <c r="N5">
-        <v>18.822264</v>
+        <v>16.911987</v>
       </c>
       <c r="O5">
-        <v>0.5269991658483459</v>
+        <v>0.5617569480231759</v>
       </c>
       <c r="P5">
-        <v>0.5372406869597056</v>
+        <v>0.5837846172773179</v>
       </c>
       <c r="Q5">
-        <v>176.2726585549093</v>
+        <v>158.3826956170664</v>
       </c>
       <c r="R5">
-        <v>1586.453926994184</v>
+        <v>1425.444260553597</v>
       </c>
       <c r="S5">
-        <v>0.2529021169209109</v>
+        <v>0.3613112768190597</v>
       </c>
       <c r="T5">
-        <v>0.2582528758867651</v>
+        <v>0.3758504220328147</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>7.793901333333333</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H6">
-        <v>23.381704</v>
+        <v>45.509405</v>
       </c>
       <c r="I6">
-        <v>0.1331260639078274</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J6">
-        <v>0.1333511684651965</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3670103333333333</v>
+        <v>0.013841</v>
       </c>
       <c r="N6">
-        <v>1.101031</v>
+        <v>0.041523</v>
       </c>
       <c r="O6">
-        <v>0.03082745086208387</v>
+        <v>0.001379248562145083</v>
       </c>
       <c r="P6">
-        <v>0.03142654097317579</v>
+        <v>0.001433331793786624</v>
       </c>
       <c r="Q6">
-        <v>2.860442326313777</v>
+        <v>0.2099652248683333</v>
       </c>
       <c r="R6">
-        <v>25.74398093682399</v>
+        <v>1.889687023815</v>
       </c>
       <c r="S6">
-        <v>0.004103937193581186</v>
+        <v>0.0004789841667311791</v>
       </c>
       <c r="T6">
-        <v>0.004190765959592363</v>
+        <v>0.000498258462337185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>7.793901333333333</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H7">
-        <v>23.381704</v>
+        <v>45.509405</v>
       </c>
       <c r="I7">
-        <v>0.1331260639078274</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J7">
-        <v>0.1333511684651965</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.583351333333334</v>
+        <v>3.248047</v>
       </c>
       <c r="N7">
-        <v>13.750054</v>
+        <v>9.744140999999999</v>
       </c>
       <c r="O7">
-        <v>0.3849838142940569</v>
+        <v>0.3236662202535691</v>
       </c>
       <c r="P7">
-        <v>0.3924654577522156</v>
+        <v>0.3363578522370683</v>
       </c>
       <c r="Q7">
-        <v>35.72218806800178</v>
+        <v>49.27222879401166</v>
       </c>
       <c r="R7">
-        <v>321.499692612016</v>
+        <v>443.450059146105</v>
       </c>
       <c r="S7">
-        <v>0.05125137986518978</v>
+        <v>0.1124025060182578</v>
       </c>
       <c r="T7">
-        <v>0.05233572737348614</v>
+        <v>0.1169255764626043</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>7.793901333333333</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H8">
-        <v>23.381704</v>
+        <v>45.509405</v>
       </c>
       <c r="I8">
-        <v>0.1331260639078274</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J8">
-        <v>0.1333511684651965</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6808595000000001</v>
+        <v>1.1359575</v>
       </c>
       <c r="N8">
-        <v>1.361719</v>
+        <v>2.271915</v>
       </c>
       <c r="O8">
-        <v>0.05718956899551328</v>
+        <v>0.1131975831611099</v>
       </c>
       <c r="P8">
-        <v>0.038867314314903</v>
+        <v>0.07842419869182714</v>
       </c>
       <c r="Q8">
-        <v>5.306551764862667</v>
+        <v>17.2322499767625</v>
       </c>
       <c r="R8">
-        <v>31.839310589176</v>
+        <v>103.393499860575</v>
       </c>
       <c r="S8">
-        <v>0.007613422216957806</v>
+        <v>0.03931115212625774</v>
       </c>
       <c r="T8">
-        <v>0.005183001778996371</v>
+        <v>0.02726202043351362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>7.793901333333333</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H9">
-        <v>23.381704</v>
+        <v>45.509405</v>
       </c>
       <c r="I9">
-        <v>0.1331260639078274</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J9">
-        <v>0.1333511684651965</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.274088</v>
+        <v>5.637329</v>
       </c>
       <c r="N9">
-        <v>18.822264</v>
+        <v>16.911987</v>
       </c>
       <c r="O9">
-        <v>0.5269991658483459</v>
+        <v>0.5617569480231759</v>
       </c>
       <c r="P9">
-        <v>0.5372406869597056</v>
+        <v>0.5837846172773179</v>
       </c>
       <c r="Q9">
-        <v>48.89962282865066</v>
+        <v>85.51716285974834</v>
       </c>
       <c r="R9">
-        <v>440.096605457856</v>
+        <v>769.654465737735</v>
       </c>
       <c r="S9">
-        <v>0.07015732463209864</v>
+        <v>0.1950864340477213</v>
       </c>
       <c r="T9">
-        <v>0.07164167335312158</v>
+        <v>0.2029367010496945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.2964835</v>
+        <v>0.129484</v>
       </c>
       <c r="H10">
-        <v>0.592967</v>
+        <v>0.258968</v>
       </c>
       <c r="I10">
-        <v>0.005064175139068095</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J10">
-        <v>0.00338182547821588</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3670103333333333</v>
+        <v>0.013841</v>
       </c>
       <c r="N10">
-        <v>1.101031</v>
+        <v>0.041523</v>
       </c>
       <c r="O10">
-        <v>0.03082745086208387</v>
+        <v>0.001379248562145083</v>
       </c>
       <c r="P10">
-        <v>0.03142654097317579</v>
+        <v>0.001433331793786624</v>
       </c>
       <c r="Q10">
-        <v>0.1088125081628333</v>
+        <v>0.001792188044</v>
       </c>
       <c r="R10">
-        <v>0.652875048977</v>
+        <v>0.010753128264</v>
       </c>
       <c r="S10">
-        <v>0.0001561156102566084</v>
+        <v>4.088437489680648E-06</v>
       </c>
       <c r="T10">
-        <v>0.0001062790769552811</v>
+        <v>2.835303987703995E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.2964835</v>
+        <v>0.129484</v>
       </c>
       <c r="H11">
-        <v>0.592967</v>
+        <v>0.258968</v>
       </c>
       <c r="I11">
-        <v>0.005064175139068095</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J11">
-        <v>0.00338182547821588</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.583351333333334</v>
+        <v>3.248047</v>
       </c>
       <c r="N11">
-        <v>13.750054</v>
+        <v>9.744140999999999</v>
       </c>
       <c r="O11">
-        <v>0.3849838142940569</v>
+        <v>0.3236662202535691</v>
       </c>
       <c r="P11">
-        <v>0.3924654577522156</v>
+        <v>0.3363578522370683</v>
       </c>
       <c r="Q11">
-        <v>1.358888045036333</v>
+        <v>0.4205701177479999</v>
       </c>
       <c r="R11">
-        <v>8.153328270218001</v>
+        <v>2.523420706487999</v>
       </c>
       <c r="S11">
-        <v>0.001949625461291572</v>
+        <v>0.0009594275791521393</v>
       </c>
       <c r="T11">
-        <v>0.001327249684346101</v>
+        <v>0.0006653565935517662</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.2964835</v>
+        <v>0.129484</v>
       </c>
       <c r="H12">
-        <v>0.592967</v>
+        <v>0.258968</v>
       </c>
       <c r="I12">
-        <v>0.005064175139068095</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J12">
-        <v>0.00338182547821588</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6808595000000001</v>
+        <v>1.1359575</v>
       </c>
       <c r="N12">
-        <v>1.361719</v>
+        <v>2.271915</v>
       </c>
       <c r="O12">
-        <v>0.05718956899551328</v>
+        <v>0.1131975831611099</v>
       </c>
       <c r="P12">
-        <v>0.038867314314903</v>
+        <v>0.07842419869182714</v>
       </c>
       <c r="Q12">
-        <v>0.20186360756825</v>
+        <v>0.14708832093</v>
       </c>
       <c r="R12">
-        <v>0.8074544302730001</v>
+        <v>0.58835328372</v>
       </c>
       <c r="S12">
-        <v>0.0002896179935210979</v>
+        <v>0.0003355459309070085</v>
       </c>
       <c r="T12">
-        <v>0.0001314424738199637</v>
+        <v>0.0001551325689190213</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.2964835</v>
+        <v>0.129484</v>
       </c>
       <c r="H13">
-        <v>0.592967</v>
+        <v>0.258968</v>
       </c>
       <c r="I13">
-        <v>0.005064175139068095</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J13">
-        <v>0.00338182547821588</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.274088</v>
+        <v>5.637329</v>
       </c>
       <c r="N13">
-        <v>18.822264</v>
+        <v>16.911987</v>
       </c>
       <c r="O13">
-        <v>0.5269991658483459</v>
+        <v>0.5617569480231759</v>
       </c>
       <c r="P13">
-        <v>0.5372406869597056</v>
+        <v>0.5837846172773179</v>
       </c>
       <c r="Q13">
-        <v>1.860163569548</v>
+        <v>0.729943908236</v>
       </c>
       <c r="R13">
-        <v>11.160981417288</v>
+        <v>4.379663449415999</v>
       </c>
       <c r="S13">
-        <v>0.002668816073998818</v>
+        <v>0.001665188008472214</v>
       </c>
       <c r="T13">
-        <v>0.001816854243094534</v>
+        <v>0.001154796719434967</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>26</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>22.35954133333334</v>
+        <v>0.287247</v>
       </c>
       <c r="H14">
-        <v>67.078624</v>
+        <v>0.861741</v>
       </c>
       <c r="I14">
-        <v>0.3819188364318155</v>
+        <v>0.006575885106400611</v>
       </c>
       <c r="J14">
-        <v>0.3825646278576433</v>
+        <v>0.006582389055223097</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3670103333333333</v>
+        <v>0.013841</v>
       </c>
       <c r="N14">
-        <v>1.101031</v>
+        <v>0.041523</v>
       </c>
       <c r="O14">
-        <v>0.03082745086208387</v>
+        <v>0.001379248562145083</v>
       </c>
       <c r="P14">
-        <v>0.03142654097317579</v>
+        <v>0.001433331793786624</v>
       </c>
       <c r="Q14">
-        <v>8.206182717927112</v>
+        <v>0.003975785726999999</v>
       </c>
       <c r="R14">
-        <v>73.855644461344</v>
+        <v>0.035782071543</v>
       </c>
       <c r="S14">
-        <v>0.01177358416340604</v>
+        <v>9.069780077834306E-06</v>
       </c>
       <c r="T14">
-        <v>0.01202268295225598</v>
+        <v>9.434747511924363E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>22.35954133333334</v>
+        <v>0.287247</v>
       </c>
       <c r="H15">
-        <v>67.078624</v>
+        <v>0.861741</v>
       </c>
       <c r="I15">
-        <v>0.3819188364318155</v>
+        <v>0.006575885106400611</v>
       </c>
       <c r="J15">
-        <v>0.3825646278576433</v>
+        <v>0.006582389055223097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.583351333333334</v>
+        <v>3.248047</v>
       </c>
       <c r="N15">
-        <v>13.750054</v>
+        <v>9.744140999999999</v>
       </c>
       <c r="O15">
-        <v>0.3849838142940569</v>
+        <v>0.3236662202535691</v>
       </c>
       <c r="P15">
-        <v>0.3924654577522156</v>
+        <v>0.3363578522370683</v>
       </c>
       <c r="Q15">
-        <v>102.4816335828551</v>
+        <v>0.9329917566089998</v>
       </c>
       <c r="R15">
-        <v>922.3347022456961</v>
+        <v>8.396925809480999</v>
       </c>
       <c r="S15">
-        <v>0.1470325704002684</v>
+        <v>0.002128391877210424</v>
       </c>
       <c r="T15">
-        <v>0.150143401791956</v>
+        <v>0.002214038245203626</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>22.35954133333334</v>
+        <v>0.287247</v>
       </c>
       <c r="H16">
-        <v>67.078624</v>
+        <v>0.861741</v>
       </c>
       <c r="I16">
-        <v>0.3819188364318155</v>
+        <v>0.006575885106400611</v>
       </c>
       <c r="J16">
-        <v>0.3825646278576433</v>
+        <v>0.006582389055223097</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6808595000000001</v>
+        <v>1.1359575</v>
       </c>
       <c r="N16">
-        <v>1.361719</v>
+        <v>2.271915</v>
       </c>
       <c r="O16">
-        <v>0.05718956899551328</v>
+        <v>0.1131975831611099</v>
       </c>
       <c r="P16">
-        <v>0.038867314314903</v>
+        <v>0.07842419869182714</v>
       </c>
       <c r="Q16">
-        <v>15.22370613244267</v>
+        <v>0.3263003840024999</v>
       </c>
       <c r="R16">
-        <v>91.34223679465602</v>
+        <v>1.957802304015</v>
       </c>
       <c r="S16">
-        <v>0.02184177364680346</v>
+        <v>0.0007443743011896875</v>
       </c>
       <c r="T16">
-        <v>0.01486925963670692</v>
+        <v>0.0005162185871337245</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>22.35954133333334</v>
+        <v>0.287247</v>
       </c>
       <c r="H17">
-        <v>67.078624</v>
+        <v>0.861741</v>
       </c>
       <c r="I17">
-        <v>0.3819188364318155</v>
+        <v>0.006575885106400611</v>
       </c>
       <c r="J17">
-        <v>0.3825646278576433</v>
+        <v>0.006582389055223097</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.274088</v>
+        <v>5.637329</v>
       </c>
       <c r="N17">
-        <v>18.822264</v>
+        <v>16.911987</v>
       </c>
       <c r="O17">
-        <v>0.5269991658483459</v>
+        <v>0.5617569480231759</v>
       </c>
       <c r="P17">
-        <v>0.5372406869597056</v>
+        <v>0.5837846172773179</v>
       </c>
       <c r="Q17">
-        <v>140.2857299649707</v>
+        <v>1.619305843263</v>
       </c>
       <c r="R17">
-        <v>1262.571569684736</v>
+        <v>14.573752589367</v>
       </c>
       <c r="S17">
-        <v>0.2012709082213376</v>
+        <v>0.003694049147922664</v>
       </c>
       <c r="T17">
-        <v>0.2055292834767244</v>
+        <v>0.003842697475373822</v>
       </c>
     </row>
   </sheetData>
